--- a/SemiSupervised/models/test_DSC_report_Semisupervised.xlsx
+++ b/SemiSupervised/models/test_DSC_report_Semisupervised.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca0.sharepoint.com/sites/DentalAI/Shared Documents/Données/Data to publish/Experiment/Model/SelfSupervised/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_Repository\Teeth-Segmentation\SemiSupervised\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="8_{76DF5AB3-5635-4179-8FB5-93DAA748CEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98C2BE2D-8D4E-4EC3-8411-16B687CF4993}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EAC645-D83D-44BF-AC1D-3AB3815CD237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30360" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>label 1</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>Upper004C_labeled_original_tol0_5_decimated_msn_registered.vtp</t>
-  </si>
-  <si>
-    <t>Upper014Caligned_missing_15_24_decimated_msn_registered.vtp</t>
   </si>
   <si>
     <t>Upper022C_labeled_original_tol0_5_decimated_msn_registered.vtp</t>
@@ -940,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79FABB03-B2B7-49DF-99C3-5CD5FE3ED013}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,13 +1091,13 @@
         <v>0.95874714999999999</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P8" si="0">AVERAGE(B3:O3)</f>
+        <f t="shared" ref="P3:P7" si="0">AVERAGE(B3:O3)</f>
         <v>0.86140149642857156</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>0.94608150000000002</v>
@@ -1151,7 +1148,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>2.5445292999999999E-3</v>
@@ -1202,7 +1199,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>5.3763439999999999E-3</v>
@@ -1253,7 +1250,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>0.77200000000000002</v>
@@ -1303,54 +1300,12 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8">
-        <v>0.81795669999999998</v>
-      </c>
-      <c r="C8">
-        <v>0.92091690000000004</v>
-      </c>
-      <c r="D8">
-        <v>4.1666667999999997E-2</v>
-      </c>
-      <c r="E8">
-        <v>0.75745684000000002</v>
-      </c>
-      <c r="F8">
-        <v>0.7493438</v>
-      </c>
-      <c r="G8">
-        <v>0.40634439999999999</v>
-      </c>
-      <c r="H8">
-        <v>0.49374400000000002</v>
-      </c>
-      <c r="I8">
-        <v>0.78300923</v>
-      </c>
-      <c r="J8">
-        <v>0.64563110000000001</v>
-      </c>
-      <c r="K8">
-        <v>0.19320593999999999</v>
-      </c>
-      <c r="L8">
-        <v>3.1347962000000001E-3</v>
-      </c>
-      <c r="M8">
-        <v>0.80484694000000001</v>
-      </c>
-      <c r="N8">
-        <v>0.82074802999999996</v>
-      </c>
-      <c r="O8">
-        <v>0.75538970000000005</v>
+      <c r="O8" t="s">
+        <v>20</v>
       </c>
       <c r="P8">
-        <f t="shared" si="0"/>
-        <v>0.58524250315714288</v>
+        <f>AVERAGE(P2:P7)</f>
+        <v>0.76720441791666671</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1358,17 +1313,8 @@
         <v>21</v>
       </c>
       <c r="P9">
-        <f>AVERAGE(P2:P8)</f>
-        <v>0.7412098586653062</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="O10" t="s">
-        <v>22</v>
-      </c>
-      <c r="P10">
-        <f>STDEV(P2:P8)</f>
-        <v>0.13620766364748496</v>
+        <f>STDEV(P2:P7)</f>
+        <v>0.12879056422703766</v>
       </c>
     </row>
   </sheetData>
@@ -1594,18 +1540,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1628,18 +1574,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E00757B2-EA57-477E-8859-7D38E2C8F103}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62ACC3A6-0130-4342-93C2-7488733B4F30}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E00757B2-EA57-477E-8859-7D38E2C8F103}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>